--- a/suiviProjet.xlsx
+++ b/suiviProjet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Equipe :</t>
   </si>
@@ -129,13 +129,19 @@
     <t>Joachim</t>
   </si>
   <si>
-    <t xml:space="preserve">Fonctionnalité 7</t>
-  </si>
-  <si>
-    <t>Fonctionnalité8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonctionnalité 9</t>
+    <t xml:space="preserve">serveur en ligne</t>
+  </si>
+  <si>
+    <t>Inscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joachim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">base de données affiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 En cours</t>
   </si>
 </sst>
 </file>
@@ -308,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -316,9 +322,6 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,7 +398,6 @@
     <xf fontId="6" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="6" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -420,6 +422,7 @@
     <xf fontId="8" fillId="6" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,10 +955,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" ht="18.75">
       <c r="A2" s="1" t="s">
@@ -964,272 +967,284 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" ht="21">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" ht="14.25"/>
     <row r="6" ht="37.5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="18.75">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>44811</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>44818</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="H7" s="12" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="H7" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="16.5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="H8" s="12" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="H8" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="16.5">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="19" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" ht="16.5">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" ht="16.5">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" ht="16.5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" ht="18.75">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>44818</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>44825</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" ht="16.5">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" ht="16.5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" ht="16.5">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" ht="16.5">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="33" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" ht="18.75">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="33">
         <v>44825</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="34">
         <v>44832</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" ht="16.5">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="33"/>
+      <c r="B19" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="31" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" ht="16.5">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="33"/>
+      <c r="B20" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="31" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" ht="16.5">
-      <c r="A21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
+      <c r="A21" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="37" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" ht="14.25"/>
   </sheetData>
